--- a/biology/Médecine/Claude_Aubery/Claude_Aubery.xlsx
+++ b/biology/Médecine/Claude_Aubery/Claude_Aubery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Aubery, né vers 1545 et mort à Dijon en 1596, est un médecin et philosophe français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Aubery embrasse le protestantisme, se réfugie à Lausanne où il est nommé professeur de philosophie.
-Sous le nom de Claudii Alberii Triuncuriani, il publia en 1585 à Genève chez Jean Le Preux, un livre intitulé Oratio apodictica, de resurrectione mortuorum[1] sorte de commentaire sur l'Épître aux Romains, critique à l'égard du calvinisme traditionnel prépondérant en Suisse au XVIe siècle[2].
-Son texte fut censuré notamment par Théodore de Bèze[3] et en 1588, Aubery dut se soumettre[4].
+Sous le nom de Claudii Alberii Triuncuriani, il publia en 1585 à Genève chez Jean Le Preux, un livre intitulé Oratio apodictica, de resurrectione mortuorum sorte de commentaire sur l'Épître aux Romains, critique à l'égard du calvinisme traditionnel prépondérant en Suisse au XVIe siècle.
+Son texte fut censuré notamment par Théodore de Bèze et en 1588, Aubery dut se soumettre.
 Il revient ensuite en France et retourne au catholicisme. 
-Il s'intéresse aussi à l'alchimie et connaît Oswald Croll et Venceslas Lavinius à qui il dédie un livre : De concordia medicorum, disputatio exoterica. Ad Vencislaum Lavinium ab Ottenfeld, Moravum[5]. Il y soutient la doctrine de Paracelse mais reste prudent quant à l'hypothèse de la pierre philosophale[6] tout en étant un fervent partisan de la théorie des signatures.
-Il ne doit pas être confondu avec Claude Aubery fils de Nicolas, pasteur de Collonge-Bellerive et Corsier de 1578 à 1590, de Collonges-Fort-l'Écluse vers 1590-1592, et du Grand-Saconnex de 1592 à 1608[7].
+Il s'intéresse aussi à l'alchimie et connaît Oswald Croll et Venceslas Lavinius à qui il dédie un livre : De concordia medicorum, disputatio exoterica. Ad Vencislaum Lavinium ab Ottenfeld, Moravum. Il y soutient la doctrine de Paracelse mais reste prudent quant à l'hypothèse de la pierre philosophale tout en étant un fervent partisan de la théorie des signatures.
+Il ne doit pas être confondu avec Claude Aubery fils de Nicolas, pasteur de Collonge-Bellerive et Corsier de 1578 à 1590, de Collonges-Fort-l'Écluse vers 1590-1592, et du Grand-Saconnex de 1592 à 1608.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Ouvrages de Claude Aubery</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Posteriorum notionum quas secundas intentiones et praedicabilia vocant, brevis et luculenta explicatio, 1576 (lire en ligne)
 (la) Organon. Id est : instrumentum doctrinarum omnium : in duas partes divisum. Nempe, in Analyticum eruditionis modum, et Dialecticam : sive methodum disputandi in utramque partem, 1584 (lire en ligne)
